--- a/results/timing.xlsx
+++ b/results/timing.xlsx
@@ -825,13 +825,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -865,13 +868,13 @@
         <v>326</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">B3/A3</f>
+        <f t="shared" ref="C3:C18" si="0">B3/A3</f>
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <f t="shared" ref="A4:A15" si="1">A3*2</f>
+        <f t="shared" ref="A4:A18" si="1">A3*2</f>
         <v>4</v>
       </c>
       <c r="B4">
@@ -940,11 +943,11 @@
         <v>128</v>
       </c>
       <c r="B9">
-        <v>18857</v>
+        <v>18852</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>147.3203125</v>
+        <v>147.28125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -953,11 +956,11 @@
         <v>256</v>
       </c>
       <c r="B10">
-        <v>38521</v>
+        <v>38506</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>150.47265625</v>
+        <v>150.4140625</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -966,11 +969,11 @@
         <v>512</v>
       </c>
       <c r="B11">
-        <v>78311</v>
+        <v>78276</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>152.951171875</v>
+        <v>152.8828125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -979,11 +982,11 @@
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>158584</v>
+        <v>158509</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>154.8671875</v>
+        <v>154.7939453125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -992,23 +995,76 @@
         <v>2048</v>
       </c>
       <c r="B13">
-        <v>320558</v>
+        <v>320403</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>156.5224609375</v>
+        <v>156.44677734375</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="B14">
-        <v>647026</v>
+        <v>646711</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>157.96533203125</v>
+        <v>157.888427734375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>1304115</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>159.1937255859375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>2629255</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>160.47698974609375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+      <c r="B17">
+        <v>5132855</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>156.64230346679687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="B18">
+        <v>10331339</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>157.64372253417969</v>
       </c>
     </row>
   </sheetData>

--- a/results/timing.xlsx
+++ b/results/timing.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14292" windowHeight="5028" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="8616" windowHeight="3024" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="strassen" sheetId="1" r:id="rId1"/>
     <sheet name="miser" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sort" sheetId="3" r:id="rId3"/>
+    <sheet name="fib" sheetId="4" r:id="rId4"/>
+    <sheet name="others" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
   <si>
     <t>n</t>
   </si>
@@ -24,16 +27,79 @@
     <t>naive</t>
   </si>
   <si>
-    <t>strassen</t>
+    <t>vhls/strassen_indexed</t>
   </si>
   <si>
-    <t>Speedup</t>
+    <t>vhls/strassen_indexed/man</t>
   </si>
   <si>
-    <t>cycles</t>
+    <t>legup/strassen_indexed</t>
   </si>
   <si>
-    <t>cycles/n</t>
+    <t>legup/strassen_indexed_man</t>
+  </si>
+  <si>
+    <t>vhls/miser_indexed</t>
+  </si>
+  <si>
+    <t>vhls/miser_indexed_man</t>
+  </si>
+  <si>
+    <t>legup/miser_indexed</t>
+  </si>
+  <si>
+    <t>legup/miser_indexed_man</t>
+  </si>
+  <si>
+    <t>vhls</t>
+  </si>
+  <si>
+    <t>legup</t>
+  </si>
+  <si>
+    <t>dsl</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>sort_indexed</t>
+  </si>
+  <si>
+    <t>fft_indexed</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>fib</t>
+  </si>
+  <si>
+    <t>LUTs</t>
+  </si>
+  <si>
+    <t>FFs</t>
+  </si>
+  <si>
+    <t>DSPs</t>
+  </si>
+  <si>
+    <t>BRAMs</t>
+  </si>
+  <si>
+    <t>BRAMs (RAMB18E)</t>
+  </si>
+  <si>
+    <t>sudoku</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>ackerman</t>
+  </si>
+  <si>
+    <t>ackerman for VHLS is m=3,n=4</t>
   </si>
 </sst>
 </file>
@@ -96,7 +162,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>strassen!$A$2:$A$10</c:f>
+              <c:f>strassen!$A$8:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -139,7 +205,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>strassen!$B$2:$B$10</c:f>
+              <c:f>strassen!$B$8:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -182,7 +248,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>strassen!$C$2:$C$10</c:f>
+              <c:f>strassen!$C$8:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -218,8 +284,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94025600"/>
-        <c:axId val="94027136"/>
+        <c:axId val="87724416"/>
+        <c:axId val="87725952"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -231,60 +297,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>strassen!$D$2:$D$10</c:f>
+              <c:f>strassen!$D$15:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.93548387096774188</c:v>
+                  <c:v>133721815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97641509433962259</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98941469489414691</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99482236737294882</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0656220762042006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1764713770998918</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3193220187159369</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4920230067008307</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6951561313928676</c:v>
+                  <c:v>940909566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="172969344"/>
-        <c:axId val="162401664"/>
+        <c:axId val="87733376"/>
+        <c:axId val="87727488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94025600"/>
+        <c:axId val="87724416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94027136"/>
+        <c:crossAx val="87725952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94027136"/>
+        <c:axId val="87725952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -292,31 +337,32 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94025600"/>
+        <c:crossAx val="87724416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162401664"/>
+        <c:axId val="87727488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172969344"/>
+        <c:crossAx val="87733376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="172969344"/>
+        <c:axId val="87733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="162401664"/>
+        <c:crossAx val="87727488"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -330,7 +376,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -340,16 +386,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -656,19 +702,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,140 +729,287 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>243</v>
+      </c>
+      <c r="C4">
+        <v>6398</v>
+      </c>
+      <c r="D4">
+        <v>5851</v>
+      </c>
+      <c r="E4">
+        <v>9838</v>
+      </c>
+      <c r="F4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>424</v>
+      </c>
+      <c r="C5">
+        <v>5601</v>
+      </c>
+      <c r="D5">
+        <v>5219</v>
+      </c>
+      <c r="E5">
+        <v>12201</v>
+      </c>
+      <c r="F5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>8.5</v>
+      </c>
+      <c r="D7">
+        <v>7.5</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>116</v>
       </c>
-      <c r="C2">
+      <c r="C8">
         <v>124</v>
       </c>
-      <c r="D2">
-        <f>B2/C2</f>
-        <v>0.93548387096774188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B9">
         <v>828</v>
       </c>
-      <c r="C3">
+      <c r="C9">
         <v>848</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">B3/C3</f>
-        <v>0.97641509433962259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="D9">
+        <v>832</v>
+      </c>
+      <c r="E9">
+        <v>412</v>
+      </c>
+      <c r="F9">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>6356</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>6424</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.98941469489414691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="D10">
+        <v>6360</v>
+      </c>
+      <c r="E10">
+        <v>2852</v>
+      </c>
+      <c r="F10">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B11">
         <v>49956</v>
       </c>
-      <c r="C5">
+      <c r="C11">
         <v>50216</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.99482236737294882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="D11">
+        <v>49960</v>
+      </c>
+      <c r="E11">
+        <v>21556</v>
+      </c>
+      <c r="F11">
+        <v>21551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="B12">
         <v>396356</v>
       </c>
-      <c r="C6">
+      <c r="C12">
         <v>371948</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.0656220762042006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="D12">
+        <v>369134</v>
+      </c>
+      <c r="E12">
+        <v>170066</v>
+      </c>
+      <c r="F12">
+        <v>169907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>64</v>
       </c>
-      <c r="B7">
+      <c r="B13">
         <v>3158148</v>
       </c>
-      <c r="C7">
+      <c r="C13">
         <v>2684424</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.1764713770998918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="D13">
+        <v>2660639</v>
+      </c>
+      <c r="E13">
+        <v>1265380</v>
+      </c>
+      <c r="F13">
+        <v>1264143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>128</v>
       </c>
-      <c r="B8">
+      <c r="B14">
         <v>25215236</v>
       </c>
-      <c r="C8">
+      <c r="C14">
         <v>19112268</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.3193220187159369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="D14">
+        <v>18929389</v>
+      </c>
+      <c r="E14">
+        <v>9154658</v>
+      </c>
+      <c r="F14">
+        <v>9145875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
         <v>256</v>
       </c>
-      <c r="B9">
+      <c r="B15">
         <v>201523716</v>
       </c>
-      <c r="C9">
+      <c r="C15">
         <v>135067432</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.4920230067008307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="D15">
+        <v>133721815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
         <v>512</v>
       </c>
-      <c r="B10">
+      <c r="B16">
         <v>1611400196</v>
       </c>
-      <c r="C10">
+      <c r="C16">
         <v>950591020</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.6951561313928676</v>
+      <c r="D16">
+        <v>940909566</v>
       </c>
     </row>
   </sheetData>
@@ -825,261 +1020,1911 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>7311</v>
+      </c>
+      <c r="C3">
+        <v>7820</v>
+      </c>
+      <c r="D3">
+        <v>17880</v>
+      </c>
+      <c r="E3">
+        <v>16013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>5824</v>
+      </c>
+      <c r="C4">
+        <v>6847</v>
+      </c>
+      <c r="D4">
+        <v>22861</v>
+      </c>
+      <c r="E4">
+        <v>23634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B7">
         <v>184</v>
       </c>
-      <c r="C2">
-        <f>B2/A2</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <f>A2*2</f>
+      <c r="C7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f>A7*2</f>
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>326</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C18" si="0">B3/A3</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <f t="shared" ref="A4:A18" si="1">A3*2</f>
+      <c r="C8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f t="shared" ref="A9:A23" si="0">A8*2</f>
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B9">
         <v>610</v>
       </c>
-      <c r="C4">
+      <c r="C9">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <f t="shared" si="0"/>
-        <v>152.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>1178</v>
       </c>
-      <c r="C5">
+      <c r="C10">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
         <f t="shared" si="0"/>
-        <v>147.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>2314</v>
       </c>
-      <c r="C6">
+      <c r="C11">
+        <v>2319</v>
+      </c>
+      <c r="D11">
+        <v>7749</v>
+      </c>
+      <c r="E11">
+        <v>7743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
         <f t="shared" si="0"/>
-        <v>144.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>4586</v>
       </c>
-      <c r="C7">
+      <c r="C12">
+        <v>4591</v>
+      </c>
+      <c r="D12">
+        <v>15318</v>
+      </c>
+      <c r="E12">
+        <v>15312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <f t="shared" si="0"/>
-        <v>143.3125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>9769</v>
       </c>
-      <c r="C8">
+      <c r="C13">
+        <v>9700</v>
+      </c>
+      <c r="D13">
+        <v>31820</v>
+      </c>
+      <c r="E13">
+        <v>31773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <f t="shared" si="0"/>
-        <v>152.640625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>18852</v>
       </c>
-      <c r="C9">
+      <c r="C14">
+        <v>18788</v>
+      </c>
+      <c r="E14">
+        <v>62877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
         <f t="shared" si="0"/>
-        <v>147.28125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>38506</v>
       </c>
-      <c r="C10">
+      <c r="C15">
+        <v>38264</v>
+      </c>
+      <c r="E15">
+        <v>124562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <f t="shared" si="0"/>
-        <v>150.4140625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>78276</v>
       </c>
-      <c r="C11">
+      <c r="C16">
+        <v>77590</v>
+      </c>
+      <c r="E16">
+        <v>246003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <f t="shared" si="0"/>
-        <v>152.8828125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>158509</v>
       </c>
-      <c r="C12">
+      <c r="C17">
+        <v>156803</v>
+      </c>
+      <c r="E17">
+        <v>489526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <f t="shared" si="0"/>
-        <v>154.7939453125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>320403</v>
       </c>
-      <c r="C13">
+      <c r="C18">
+        <v>316385</v>
+      </c>
+      <c r="E18">
+        <v>975762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <f t="shared" si="0"/>
-        <v>156.44677734375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>646711</v>
       </c>
-      <c r="C14">
+      <c r="C19">
+        <v>637589</v>
+      </c>
+      <c r="E19">
+        <v>1931529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <f t="shared" si="0"/>
-        <v>157.888427734375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <f t="shared" si="1"/>
         <v>8192</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>1304115</v>
       </c>
-      <c r="C15">
+      <c r="C20">
+        <v>1283873</v>
+      </c>
+      <c r="E20">
+        <v>3852972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <f t="shared" si="0"/>
-        <v>159.1937255859375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <f t="shared" si="1"/>
         <v>16384</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>2629255</v>
       </c>
-      <c r="C16">
+      <c r="C21">
+        <v>2584805</v>
+      </c>
+      <c r="E21">
+        <v>7719797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <f t="shared" si="0"/>
-        <v>160.47698974609375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <f t="shared" si="1"/>
         <v>32768</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>5132855</v>
       </c>
-      <c r="C17">
+      <c r="C22">
+        <v>5054677</v>
+      </c>
+      <c r="E22">
+        <v>15360188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <f t="shared" si="0"/>
-        <v>156.64230346679687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <f t="shared" si="1"/>
         <v>65536</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>10331339</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>157.64372253417969</v>
+      <c r="C23">
+        <v>10162521</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C7:D23">
+    <sortCondition ref="C3:C19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>858</v>
+      </c>
+      <c r="C4">
+        <v>631</v>
+      </c>
+      <c r="D4">
+        <v>2053</v>
+      </c>
+      <c r="E4">
+        <v>1897</v>
+      </c>
+      <c r="F4">
+        <v>32767</v>
+      </c>
+      <c r="G4">
+        <v>5250</v>
+      </c>
+      <c r="H4">
+        <v>3935</v>
+      </c>
+      <c r="I4">
+        <v>3834</v>
+      </c>
+      <c r="J4">
+        <v>294</v>
+      </c>
+      <c r="K4">
+        <v>306</v>
+      </c>
+      <c r="L4">
+        <v>629</v>
+      </c>
+      <c r="M4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>759</v>
+      </c>
+      <c r="C5">
+        <v>592</v>
+      </c>
+      <c r="D5">
+        <v>3525</v>
+      </c>
+      <c r="E5">
+        <v>3120</v>
+      </c>
+      <c r="F5">
+        <v>3145</v>
+      </c>
+      <c r="G5">
+        <v>5229</v>
+      </c>
+      <c r="H5">
+        <v>6123</v>
+      </c>
+      <c r="I5">
+        <v>5515</v>
+      </c>
+      <c r="J5">
+        <v>186</v>
+      </c>
+      <c r="K5">
+        <v>191</v>
+      </c>
+      <c r="L5">
+        <v>1091</v>
+      </c>
+      <c r="M5">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4.5</v>
+      </c>
+      <c r="H7">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>1.5</v>
+      </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>53</v>
+      </c>
+      <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>93</v>
+      </c>
+      <c r="G9">
+        <v>147</v>
+      </c>
+      <c r="H9">
+        <v>329</v>
+      </c>
+      <c r="I9">
+        <v>280</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>46</v>
+      </c>
+      <c r="L9">
+        <v>182</v>
+      </c>
+      <c r="M9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>167</v>
+      </c>
+      <c r="E10">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>285</v>
+      </c>
+      <c r="G10">
+        <v>451</v>
+      </c>
+      <c r="H10">
+        <v>975</v>
+      </c>
+      <c r="I10">
+        <v>830</v>
+      </c>
+      <c r="J10">
+        <v>85</v>
+      </c>
+      <c r="K10">
+        <v>94</v>
+      </c>
+      <c r="L10">
+        <v>410</v>
+      </c>
+      <c r="M10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>308</v>
+      </c>
+      <c r="C11">
+        <v>168</v>
+      </c>
+      <c r="D11">
+        <v>409</v>
+      </c>
+      <c r="E11">
+        <v>372</v>
+      </c>
+      <c r="F11">
+        <v>745</v>
+      </c>
+      <c r="G11">
+        <v>1191</v>
+      </c>
+      <c r="H11">
+        <v>2459</v>
+      </c>
+      <c r="I11">
+        <v>2122</v>
+      </c>
+      <c r="J11">
+        <v>173</v>
+      </c>
+      <c r="K11">
+        <v>190</v>
+      </c>
+      <c r="L11">
+        <v>866</v>
+      </c>
+      <c r="M11">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>1006</v>
+      </c>
+      <c r="C12">
+        <v>555</v>
+      </c>
+      <c r="D12">
+        <v>1480</v>
+      </c>
+      <c r="E12">
+        <v>1370</v>
+      </c>
+      <c r="F12">
+        <v>1817</v>
+      </c>
+      <c r="G12">
+        <v>2935</v>
+      </c>
+      <c r="H12">
+        <v>5811</v>
+      </c>
+      <c r="I12">
+        <v>5090</v>
+      </c>
+      <c r="J12">
+        <v>349</v>
+      </c>
+      <c r="K12">
+        <v>382</v>
+      </c>
+      <c r="L12">
+        <v>1778</v>
+      </c>
+      <c r="M12">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>2315</v>
+      </c>
+      <c r="C13">
+        <v>1285</v>
+      </c>
+      <c r="D13">
+        <v>1874</v>
+      </c>
+      <c r="E13">
+        <v>1618</v>
+      </c>
+      <c r="F13">
+        <v>4265</v>
+      </c>
+      <c r="G13">
+        <v>6951</v>
+      </c>
+      <c r="H13">
+        <v>13283</v>
+      </c>
+      <c r="I13">
+        <v>11794</v>
+      </c>
+      <c r="J13">
+        <v>701</v>
+      </c>
+      <c r="K13">
+        <v>766</v>
+      </c>
+      <c r="L13">
+        <v>3602</v>
+      </c>
+      <c r="M13">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>4414</v>
+      </c>
+      <c r="C14">
+        <v>2691</v>
+      </c>
+      <c r="D14">
+        <v>9698</v>
+      </c>
+      <c r="E14">
+        <v>8712</v>
+      </c>
+      <c r="F14">
+        <v>9769</v>
+      </c>
+      <c r="G14">
+        <v>16039</v>
+      </c>
+      <c r="H14">
+        <v>29763</v>
+      </c>
+      <c r="I14">
+        <v>26738</v>
+      </c>
+      <c r="J14">
+        <v>1405</v>
+      </c>
+      <c r="K14">
+        <v>1534</v>
+      </c>
+      <c r="L14">
+        <v>7250</v>
+      </c>
+      <c r="M14">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>256</v>
+      </c>
+      <c r="B15">
+        <v>11616</v>
+      </c>
+      <c r="C15">
+        <v>7059</v>
+      </c>
+      <c r="D15">
+        <v>17073</v>
+      </c>
+      <c r="E15">
+        <v>16160</v>
+      </c>
+      <c r="F15">
+        <v>21993</v>
+      </c>
+      <c r="G15">
+        <v>36327</v>
+      </c>
+      <c r="H15">
+        <v>65795</v>
+      </c>
+      <c r="I15">
+        <v>59698</v>
+      </c>
+      <c r="J15">
+        <v>2813</v>
+      </c>
+      <c r="K15">
+        <v>3070</v>
+      </c>
+      <c r="L15">
+        <v>14546</v>
+      </c>
+      <c r="M15">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>512</v>
+      </c>
+      <c r="B16">
+        <v>24198</v>
+      </c>
+      <c r="C16">
+        <v>14707</v>
+      </c>
+      <c r="D16">
+        <v>34828</v>
+      </c>
+      <c r="E16">
+        <v>32820</v>
+      </c>
+      <c r="F16">
+        <v>48873</v>
+      </c>
+      <c r="G16">
+        <v>81127</v>
+      </c>
+      <c r="H16">
+        <v>144003</v>
+      </c>
+      <c r="I16">
+        <v>131762</v>
+      </c>
+      <c r="J16">
+        <v>5629</v>
+      </c>
+      <c r="K16">
+        <v>6142</v>
+      </c>
+      <c r="L16">
+        <v>29138</v>
+      </c>
+      <c r="M16">
+        <v>20448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>1024</v>
+      </c>
+      <c r="B17">
+        <v>53916</v>
+      </c>
+      <c r="C17">
+        <v>33403</v>
+      </c>
+      <c r="D17">
+        <v>67681</v>
+      </c>
+      <c r="E17">
+        <v>63848</v>
+      </c>
+      <c r="F17">
+        <v>107497</v>
+      </c>
+      <c r="G17">
+        <v>179175</v>
+      </c>
+      <c r="H17">
+        <v>312707</v>
+      </c>
+      <c r="I17">
+        <v>288178</v>
+      </c>
+      <c r="J17">
+        <v>11261</v>
+      </c>
+      <c r="K17">
+        <v>12286</v>
+      </c>
+      <c r="L17">
+        <v>58322</v>
+      </c>
+      <c r="M17">
+        <v>40928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>2048</v>
+      </c>
+      <c r="B18">
+        <v>113829</v>
+      </c>
+      <c r="C18">
+        <v>71287</v>
+      </c>
+      <c r="D18">
+        <v>134277</v>
+      </c>
+      <c r="E18">
+        <v>126356</v>
+      </c>
+      <c r="F18">
+        <v>234473</v>
+      </c>
+      <c r="G18">
+        <v>392167</v>
+      </c>
+      <c r="H18">
+        <v>674691</v>
+      </c>
+      <c r="I18">
+        <v>625586</v>
+      </c>
+      <c r="J18">
+        <v>22525</v>
+      </c>
+      <c r="K18">
+        <v>24574</v>
+      </c>
+      <c r="L18">
+        <v>116690</v>
+      </c>
+      <c r="M18">
+        <v>81888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>4096</v>
+      </c>
+      <c r="B19">
+        <v>243172</v>
+      </c>
+      <c r="C19">
+        <v>152993</v>
+      </c>
+      <c r="D19">
+        <v>300284</v>
+      </c>
+      <c r="E19">
+        <v>285501</v>
+      </c>
+      <c r="F19">
+        <v>507881</v>
+      </c>
+      <c r="G19">
+        <v>851943</v>
+      </c>
+      <c r="H19">
+        <v>1447811</v>
+      </c>
+      <c r="I19">
+        <v>1349554</v>
+      </c>
+      <c r="J19">
+        <v>45053</v>
+      </c>
+      <c r="K19">
+        <v>49150</v>
+      </c>
+      <c r="L19">
+        <v>233426</v>
+      </c>
+      <c r="M19">
+        <v>163808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="D20">
+        <v>621188</v>
+      </c>
+      <c r="E20">
+        <v>593192</v>
+      </c>
+      <c r="H20">
+        <v>3092355</v>
+      </c>
+      <c r="I20">
+        <v>2895794</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A17:B27">
+    <sortCondition ref="A17:A27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>348</v>
+      </c>
+      <c r="C6">
+        <v>309</v>
+      </c>
+      <c r="D6">
+        <v>687</v>
+      </c>
+      <c r="E6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>307</v>
+      </c>
+      <c r="C7">
+        <v>272</v>
+      </c>
+      <c r="D7">
+        <v>998</v>
+      </c>
+      <c r="E7">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>132</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>427</v>
+      </c>
+      <c r="E16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>153</v>
+      </c>
+      <c r="C17">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>722</v>
+      </c>
+      <c r="E17">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>249</v>
+      </c>
+      <c r="C18">
+        <v>249</v>
+      </c>
+      <c r="D18">
+        <v>1194</v>
+      </c>
+      <c r="E18">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>405</v>
+      </c>
+      <c r="C19">
+        <v>405</v>
+      </c>
+      <c r="D19">
+        <v>1961</v>
+      </c>
+      <c r="E19">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>657</v>
+      </c>
+      <c r="C20">
+        <v>657</v>
+      </c>
+      <c r="D20">
+        <v>3200</v>
+      </c>
+      <c r="E20">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>1065</v>
+      </c>
+      <c r="C21">
+        <v>1065</v>
+      </c>
+      <c r="D21">
+        <v>5206</v>
+      </c>
+      <c r="E21">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1725</v>
+      </c>
+      <c r="C22">
+        <v>1725</v>
+      </c>
+      <c r="D22">
+        <v>8451</v>
+      </c>
+      <c r="E22">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2793</v>
+      </c>
+      <c r="C23">
+        <v>2793</v>
+      </c>
+      <c r="D23">
+        <v>13702</v>
+      </c>
+      <c r="E23">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>4521</v>
+      </c>
+      <c r="C24">
+        <v>4521</v>
+      </c>
+      <c r="D24">
+        <v>22198</v>
+      </c>
+      <c r="E24">
+        <v>13170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>7317</v>
+      </c>
+      <c r="C25">
+        <v>7317</v>
+      </c>
+      <c r="D25">
+        <v>35945</v>
+      </c>
+      <c r="E25">
+        <v>21325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>11841</v>
+      </c>
+      <c r="C26">
+        <v>11841</v>
+      </c>
+      <c r="D26">
+        <v>58188</v>
+      </c>
+      <c r="E26">
+        <v>34520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>19161</v>
+      </c>
+      <c r="C27">
+        <v>19161</v>
+      </c>
+      <c r="D27">
+        <v>94178</v>
+      </c>
+      <c r="E27">
+        <v>55870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>31005</v>
+      </c>
+      <c r="C28">
+        <v>31005</v>
+      </c>
+      <c r="D28">
+        <v>152411</v>
+      </c>
+      <c r="E28">
+        <v>90415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>50169</v>
+      </c>
+      <c r="C29">
+        <v>50169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>81177</v>
+      </c>
+      <c r="C30">
+        <v>81177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>131349</v>
+      </c>
+      <c r="C31">
+        <v>131349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>212529</v>
+      </c>
+      <c r="C32">
+        <v>212529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>343881</v>
+      </c>
+      <c r="C33">
+        <v>343881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>556413</v>
+      </c>
+      <c r="C34">
+        <v>556413</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C10:D34">
+    <sortCondition ref="C33:C57"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1476</v>
+      </c>
+      <c r="C6">
+        <v>1167</v>
+      </c>
+      <c r="D6">
+        <v>2261</v>
+      </c>
+      <c r="E6">
+        <v>1660</v>
+      </c>
+      <c r="F6">
+        <v>287</v>
+      </c>
+      <c r="G6">
+        <v>298</v>
+      </c>
+      <c r="H6">
+        <v>7650</v>
+      </c>
+      <c r="I6">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1486</v>
+      </c>
+      <c r="C7">
+        <v>1121</v>
+      </c>
+      <c r="D7">
+        <v>3642</v>
+      </c>
+      <c r="E7">
+        <v>2693</v>
+      </c>
+      <c r="F7">
+        <v>335</v>
+      </c>
+      <c r="G7">
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <v>10590</v>
+      </c>
+      <c r="I7">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>128</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>107183</v>
+      </c>
+      <c r="C10">
+        <v>87860</v>
+      </c>
+      <c r="D10">
+        <v>209758</v>
+      </c>
+      <c r="E10">
+        <v>158321</v>
+      </c>
+      <c r="F10">
+        <v>46207</v>
+      </c>
+      <c r="G10">
+        <v>41233</v>
+      </c>
+      <c r="H10">
+        <v>246279</v>
+      </c>
+      <c r="I10">
+        <v>175331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="H13">
+        <f>326268-79989</f>
+        <v>246279</v>
+      </c>
+      <c r="I13">
+        <f>233063-57732</f>
+        <v>175331</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/timing.xlsx
+++ b/results/timing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="8616" windowHeight="3024" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="8616" windowHeight="3024" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="strassen" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,10 @@
     <sheet name="sort" sheetId="3" r:id="rId3"/>
     <sheet name="fib" sheetId="4" r:id="rId4"/>
     <sheet name="others" sheetId="5" r:id="rId5"/>
+    <sheet name="resource_comparison" sheetId="6" r:id="rId6"/>
+    <sheet name="n_log_n_times" sheetId="8" r:id="rId7"/>
+    <sheet name="strassen_speedup" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
   <si>
     <t>n</t>
   </si>
@@ -101,6 +105,96 @@
   <si>
     <t>ackerman for VHLS is m=3,n=4</t>
   </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>Ackerman</t>
+  </si>
+  <si>
+    <t>HeapSum</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>Sudoku</t>
+  </si>
+  <si>
+    <t>Strassen</t>
+  </si>
+  <si>
+    <t>MISER</t>
+  </si>
+  <si>
+    <t>RAMs</t>
+  </si>
+  <si>
+    <t>DSL</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>DSL/Manual</t>
+  </si>
+  <si>
+    <t>VHLS</t>
+  </si>
+  <si>
+    <t>GeoMean</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Legup</t>
+  </si>
+  <si>
+    <t>Legup: DSL/Manual</t>
+  </si>
+  <si>
+    <t>DSL: VHLS/Legup</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>FFT, VHLS: D/M</t>
+  </si>
+  <si>
+    <t>FFT, Legup: D/M</t>
+  </si>
+  <si>
+    <t>Sort, VHLS: D/M</t>
+  </si>
+  <si>
+    <t>FFT, DSL: V/L</t>
+  </si>
+  <si>
+    <t>Sort, Legup: D/M</t>
+  </si>
+  <si>
+    <t>Sort, DSL: V/L</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Strassen: DSL/Manual</t>
+  </si>
+  <si>
+    <t>DSL: Naive/Strassen</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,12 +225,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,6 +536,1165 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14139369258269335"/>
+          <c:y val="5.5973430850776114E-2"/>
+          <c:w val="0.52506454519020473"/>
+          <c:h val="0.71155011945940161"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT, VHLS: D/M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.63265306122448983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63192904656319293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62552476910159527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61908006814310046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61358077974392178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60907787268532954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6054174580890247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60242582617377693</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59995535091391095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59789069452554655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59614434299008268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT, Legup: D/M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1746987951807228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1588124410933083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1416502946954814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1262506359165678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1131348642381629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1021307246473919</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0929023542447747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0851175315256543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0784944036471404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.072807016243885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT, DSL: V/L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.28267477203647418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29230769230769232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3029686864579097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31268284288418519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3210871038169088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32822632127137719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33426552169617751</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33938876273410973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34376269159308875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34752649731506718</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35079233408228006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort, VHLS: D/M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8126126126126125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8015564202334631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6402824228911186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6455588610284744</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6453389542394778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6141065173786786</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5967707997250551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5894321962442726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort, Legup: D/M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>1.2846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0994623655913978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0802919708029197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1582200247218788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1131772268135904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0564975247524753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0611822059719682</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0600332038591656</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.062687960999082</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0517791531378173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort, DSL: V/L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="2">
+                  <c:v>0.71856287425149701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75305623471882643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67972972972972978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.235325506937033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45514539080222727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68037251801089438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69478580452509475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79661943529203172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84771777743023746</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80980671630856127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="193664896"/>
+        <c:axId val="193666432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="193664896"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000">
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193666432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="193666432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Executon</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Time (cycles)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000">
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193664896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67317111338172841"/>
+          <c:y val="0.11230906629345704"/>
+          <c:w val="0.31566383796789083"/>
+          <c:h val="0.52095678105894361"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000">
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSL: Naive/Strassen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.93548387096774188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97641509433962259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98941469489414691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99482236737294882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0656220762042006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1764713770998918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3193220187159369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4920230067008307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6951561313928676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="221502848"/>
+        <c:axId val="221644672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="221502848"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000">
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221644672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="221644672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.7"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup (Naive/Strassen)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000">
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221502848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="1.5748031496063" right="1.5748031496063" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="1.5748031496063" right="1.5748031496063" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -414,6 +1727,60 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="3567042"/>
+    <xdr:ext cx="4549913" cy="2495827"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="-11043" y="3854174"/>
+    <xdr:ext cx="4549913" cy="2470426"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -705,7 +2072,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2680,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2927,4 +4294,2520 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:Z51"/>
+  <sheetViews>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f>fib!B6</f>
+        <v>348</v>
+      </c>
+      <c r="D18">
+        <f>others!F6</f>
+        <v>287</v>
+      </c>
+      <c r="E18">
+        <f>sort!J4</f>
+        <v>294</v>
+      </c>
+      <c r="F18">
+        <f>sort!B4</f>
+        <v>858</v>
+      </c>
+      <c r="G18">
+        <f>sort!F4</f>
+        <v>32767</v>
+      </c>
+      <c r="H18">
+        <f>others!B6</f>
+        <v>1476</v>
+      </c>
+      <c r="I18">
+        <f>strassen!C4</f>
+        <v>6398</v>
+      </c>
+      <c r="J18">
+        <f>miser!B3</f>
+        <v>7311</v>
+      </c>
+      <c r="K18">
+        <f>GEOMEAN(C18:J18)</f>
+        <v>1657.6009125417913</v>
+      </c>
+      <c r="P18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18">
+        <f>fib!D6</f>
+        <v>687</v>
+      </c>
+      <c r="S18">
+        <f>others!F6</f>
+        <v>287</v>
+      </c>
+      <c r="T18">
+        <f>sort!L4</f>
+        <v>629</v>
+      </c>
+      <c r="U18">
+        <f>sort!D4</f>
+        <v>2053</v>
+      </c>
+      <c r="V18">
+        <f>sort!H4</f>
+        <v>3935</v>
+      </c>
+      <c r="W18">
+        <f>others!D6</f>
+        <v>2261</v>
+      </c>
+      <c r="X18">
+        <f>strassen!E4</f>
+        <v>9838</v>
+      </c>
+      <c r="Y18">
+        <f>miser!D3</f>
+        <v>17880</v>
+      </c>
+      <c r="Z18">
+        <f>GEOMEAN(R18:Y18)</f>
+        <v>2113.7310765294396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f>fib!B7</f>
+        <v>307</v>
+      </c>
+      <c r="D19">
+        <f>others!F7</f>
+        <v>335</v>
+      </c>
+      <c r="E19">
+        <f>sort!J5</f>
+        <v>186</v>
+      </c>
+      <c r="F19">
+        <f>sort!B5</f>
+        <v>759</v>
+      </c>
+      <c r="G19">
+        <f>sort!F5</f>
+        <v>3145</v>
+      </c>
+      <c r="H19">
+        <f>others!B7</f>
+        <v>1486</v>
+      </c>
+      <c r="I19">
+        <f>strassen!C5</f>
+        <v>5601</v>
+      </c>
+      <c r="J19">
+        <f>miser!B4</f>
+        <v>5824</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K25" si="0">GEOMEAN(C19:J19)</f>
+        <v>1104.4168845512913</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19">
+        <f>fib!D7</f>
+        <v>998</v>
+      </c>
+      <c r="S19">
+        <f>others!F7</f>
+        <v>335</v>
+      </c>
+      <c r="T19">
+        <f>sort!L5</f>
+        <v>1091</v>
+      </c>
+      <c r="U19">
+        <f>sort!D5</f>
+        <v>3525</v>
+      </c>
+      <c r="V19">
+        <f>sort!H5</f>
+        <v>6123</v>
+      </c>
+      <c r="W19">
+        <f>others!D7</f>
+        <v>3642</v>
+      </c>
+      <c r="X19">
+        <f>strassen!E5</f>
+        <v>12201</v>
+      </c>
+      <c r="Y19">
+        <f>miser!D4</f>
+        <v>22861</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z29" si="1">GEOMEAN(R19:Y19)</f>
+        <v>3075.1709188448476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>fib!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>others!F8</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>sort!J6</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>sort!B6</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>sort!F6</f>
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <f>others!B8</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>strassen!C6</f>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f>miser!B5</f>
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <f>GEOMEAN(G20,I20,J20)</f>
+        <v>13.219164082843088</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <f>fib!D8</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>others!F8</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>sort!L6</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>sort!D6</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>sort!H6</f>
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <f>others!D8</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>strassen!E6</f>
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <f>miser!D5</f>
+        <v>81</v>
+      </c>
+      <c r="Z20">
+        <f>GEOMEAN(V20,X20,Y20)</f>
+        <v>7.8622241826266883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <f>fib!B9</f>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>others!F9</f>
+        <v>1.5</v>
+      </c>
+      <c r="E21">
+        <f>sort!J7</f>
+        <v>1.5</v>
+      </c>
+      <c r="F21">
+        <f>sort!B7</f>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>sort!F7</f>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f>others!B9</f>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f>strassen!C7</f>
+        <v>8.5</v>
+      </c>
+      <c r="J21">
+        <f>miser!B6</f>
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>2.935109049605773</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21">
+        <f>fib!D9</f>
+        <v>14</v>
+      </c>
+      <c r="S21">
+        <f>others!F9</f>
+        <v>1.5</v>
+      </c>
+      <c r="T21">
+        <f>sort!L7</f>
+        <v>12</v>
+      </c>
+      <c r="U21">
+        <f>sort!D7</f>
+        <v>18</v>
+      </c>
+      <c r="V21">
+        <f>sort!H7</f>
+        <v>47</v>
+      </c>
+      <c r="W21">
+        <f>others!D9</f>
+        <v>18</v>
+      </c>
+      <c r="X21">
+        <f>strassen!E7</f>
+        <v>80</v>
+      </c>
+      <c r="Y21">
+        <f>miser!D6</f>
+        <v>74</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>19.703602589957853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f>fib!C6</f>
+        <v>309</v>
+      </c>
+      <c r="D22">
+        <f>others!G6</f>
+        <v>298</v>
+      </c>
+      <c r="E22">
+        <f>sort!K4</f>
+        <v>306</v>
+      </c>
+      <c r="F22">
+        <f>sort!C4</f>
+        <v>631</v>
+      </c>
+      <c r="G22">
+        <f>sort!G4</f>
+        <v>5250</v>
+      </c>
+      <c r="H22">
+        <f>others!C6</f>
+        <v>1167</v>
+      </c>
+      <c r="I22">
+        <f>strassen!D4</f>
+        <v>5851</v>
+      </c>
+      <c r="J22">
+        <f>miser!C3</f>
+        <v>7820</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1222.3598246198294</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22">
+        <f>fib!E6</f>
+        <v>409</v>
+      </c>
+      <c r="S22">
+        <f>others!I6</f>
+        <v>942</v>
+      </c>
+      <c r="T22">
+        <f>sort!M4</f>
+        <v>545</v>
+      </c>
+      <c r="U22">
+        <f>sort!E4</f>
+        <v>1897</v>
+      </c>
+      <c r="V22">
+        <f>sort!I4</f>
+        <v>3834</v>
+      </c>
+      <c r="W22">
+        <f>others!E6</f>
+        <v>1660</v>
+      </c>
+      <c r="X22">
+        <f>strassen!F4</f>
+        <v>367</v>
+      </c>
+      <c r="Y22">
+        <f>miser!E3</f>
+        <v>16013</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>1401.6582128268512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <f>fib!C7</f>
+        <v>272</v>
+      </c>
+      <c r="D23">
+        <f>others!G7</f>
+        <v>298</v>
+      </c>
+      <c r="E23">
+        <f>sort!K5</f>
+        <v>191</v>
+      </c>
+      <c r="F23">
+        <f>sort!C5</f>
+        <v>592</v>
+      </c>
+      <c r="G23">
+        <f>sort!G5</f>
+        <v>5229</v>
+      </c>
+      <c r="H23">
+        <f>others!C7</f>
+        <v>1121</v>
+      </c>
+      <c r="I23">
+        <f>strassen!D5</f>
+        <v>5219</v>
+      </c>
+      <c r="J23">
+        <f>miser!C4</f>
+        <v>6847</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1084.9419833407951</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23">
+        <f>fib!E7</f>
+        <v>535</v>
+      </c>
+      <c r="S23">
+        <f>others!I7</f>
+        <v>1764</v>
+      </c>
+      <c r="T23">
+        <f>sort!M5</f>
+        <v>609</v>
+      </c>
+      <c r="U23">
+        <f>sort!E5</f>
+        <v>3120</v>
+      </c>
+      <c r="V23">
+        <f>sort!I5</f>
+        <v>5515</v>
+      </c>
+      <c r="W23">
+        <f>others!E7</f>
+        <v>2693</v>
+      </c>
+      <c r="X23">
+        <f>strassen!F5</f>
+        <v>632</v>
+      </c>
+      <c r="Y23">
+        <f>miser!E4</f>
+        <v>23634</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>2113.2824852208437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f>fib!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>others!G8</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>sort!K6</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>sort!C6</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>sort!G6</f>
+        <v>61</v>
+      </c>
+      <c r="H24">
+        <f>others!C8</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>strassen!D6</f>
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f>miser!C5</f>
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <f>GEOMEAN(G24,I24,J24)</f>
+        <v>23.39823202363122</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24">
+        <f>fib!E8</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>others!I8</f>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f>sort!M6</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>sort!E6</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>sort!I6</f>
+        <v>37</v>
+      </c>
+      <c r="W24">
+        <f>others!E8</f>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f>strassen!F6</f>
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <f>miser!E5</f>
+        <v>27</v>
+      </c>
+      <c r="Z24">
+        <f>GEOMEAN(V24,X24,Y24)</f>
+        <v>12.595009361425221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <f>fib!C9</f>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f>others!G9</f>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f>sort!K7</f>
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <f>sort!C7</f>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f>sort!G7</f>
+        <v>4.5</v>
+      </c>
+      <c r="H25">
+        <f>others!C9</f>
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f>strassen!D7</f>
+        <v>7.5</v>
+      </c>
+      <c r="J25">
+        <f>miser!C6</f>
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>2.8895454748353107</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25">
+        <f>fib!E9</f>
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <f>others!I9</f>
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <f>sort!M7</f>
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <f>sort!E7</f>
+        <v>12</v>
+      </c>
+      <c r="V25">
+        <f>sort!I7</f>
+        <v>31</v>
+      </c>
+      <c r="W25">
+        <f>others!E9</f>
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <f>strassen!F7</f>
+        <v>16</v>
+      </c>
+      <c r="Y25">
+        <f>miser!E6</f>
+        <v>58</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="1"/>
+        <v>13.702480008064471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <f>C18/C22</f>
+        <v>1.1262135922330097</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:J26" si="2">D18/D22</f>
+        <v>0.96308724832214765</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0.96078431372549022</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.3597464342313788</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>6.2413333333333334</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1.2647814910025708</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1.0934882925995557</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.93491048593350379</v>
+      </c>
+      <c r="K26">
+        <f>GEOMEAN(C26:J26)</f>
+        <v>1.3560662573782867</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26">
+        <f>R18/R22</f>
+        <v>1.6797066014669926</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:Y26" si="3">S18/S22</f>
+        <v>0.30467091295116772</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>1.1541284403669725</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>1.0822351080653663</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>1.0263432446531038</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="3"/>
+        <v>1.3620481927710844</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>26.806539509536783</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>1.1165927683756947</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>1.5080217539384915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:J29" si="4">C19/C23</f>
+        <v>1.1286764705882353</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>1.1241610738255035</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>0.97382198952879584</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>1.2820945945945945</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0.60145343277873398</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>1.3256021409455843</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>1.0731940984863</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.85059149992697536</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K29" si="5">GEOMEAN(C27:J27)</f>
+        <v>1.0179501775297954</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27:Y29" si="6">R19/R23</f>
+        <v>1.8654205607476635</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>0.1899092970521542</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="6"/>
+        <v>1.7914614121510672</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>1.1298076923076923</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>1.1102447869446963</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="6"/>
+        <v>1.3523950984032678</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="6"/>
+        <v>19.305379746835442</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="6"/>
+        <v>0.96729288313446726</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="1"/>
+        <v>1.4551632071674898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(C24=0,"N/A",C20/C24)</f>
+        <v>N/A</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:J28" si="7">IF(D24=0,"N/A",D20/D24)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0.56496422761738108</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" t="str">
+        <f>IF(R24=0,"N/A",R20/R24)</f>
+        <v>N/A</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" ref="S28:Y28" si="8">IF(S24=0,"N/A",S20/S24)</f>
+        <v>N/A</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="8"/>
+        <v>N/A</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="8"/>
+        <v>N/A</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="8"/>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="8"/>
+        <v>N/A</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="1"/>
+        <v>0.62423329407807748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>1.0157684228081092</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>1.5161290322580645</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="6"/>
+        <v>1.2758620689655173</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="1"/>
+        <v>1.4379588642611763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>348</v>
+      </c>
+      <c r="D34" s="1">
+        <v>307</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>309</v>
+      </c>
+      <c r="H34" s="1">
+        <v>272</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1.1262135922330097</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1.1286764705882353</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>287</v>
+      </c>
+      <c r="D35" s="1">
+        <v>335</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>298</v>
+      </c>
+      <c r="H35" s="1">
+        <v>298</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.96308724832214765</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.1241610738255035</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>294</v>
+      </c>
+      <c r="D36" s="1">
+        <v>186</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>306</v>
+      </c>
+      <c r="H36" s="1">
+        <v>191</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.96078431372549022</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.97382198952879584</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1">
+        <v>858</v>
+      </c>
+      <c r="D37" s="1">
+        <v>759</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>631</v>
+      </c>
+      <c r="H37" s="1">
+        <v>592</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.3597464342313788</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1.2820945945945945</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1">
+        <v>32767</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3145</v>
+      </c>
+      <c r="E38" s="1">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5250</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5229</v>
+      </c>
+      <c r="I38" s="1">
+        <v>61</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K38" s="3">
+        <v>6.2413333333333334</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.60145343277873398</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1476</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1486</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1167</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1121</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1.2647814910025708</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.3256021409455843</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6398</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5601</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5851</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5219</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.0934882925995557</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.0731940984863</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7311</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5824</v>
+      </c>
+      <c r="E41" s="1">
+        <v>22</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7820</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6847</v>
+      </c>
+      <c r="I41" s="1">
+        <v>70</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.93491048593350379</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.85059149992697536</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1657.6009125417913</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1104.4168845512913</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13.219164082843088</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2.935109049605773</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1222.3598246198294</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1084.9419833407951</v>
+      </c>
+      <c r="I42" s="3">
+        <v>23.39823202363122</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2.8895454748353107</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.3560662573782867</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1.0179501775297954</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.56496422761738108</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1.0157684228081092</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <v>687</v>
+      </c>
+      <c r="D43" s="1">
+        <v>998</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1">
+        <v>409</v>
+      </c>
+      <c r="H43" s="1">
+        <v>535</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.6797066014669926</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.8654205607476635</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="5"/>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1">
+        <v>287</v>
+      </c>
+      <c r="D44" s="1">
+        <v>335</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>942</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1764</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.30467091295116772</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.1899092970521542</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="5"/>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>629</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1091</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1">
+        <v>545</v>
+      </c>
+      <c r="H45" s="1">
+        <v>609</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.1541284403669725</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1.7914614121510672</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="5"/>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2053</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3525</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1897</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3120</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>12</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.0822351080653663</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1.1298076923076923</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="5"/>
+      <c r="B47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3935</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6123</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3834</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5515</v>
+      </c>
+      <c r="I47" s="1">
+        <v>37</v>
+      </c>
+      <c r="J47" s="1">
+        <v>31</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1.0263432446531038</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1.1102447869446963</v>
+      </c>
+      <c r="M47" s="3">
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1.5161290322580645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="5"/>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2261</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3642</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1660</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2693</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1.3620481927710844</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1.3523950984032678</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="5"/>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1">
+        <v>9838</v>
+      </c>
+      <c r="D49" s="1">
+        <v>12201</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>80</v>
+      </c>
+      <c r="G49" s="1">
+        <v>367</v>
+      </c>
+      <c r="H49" s="1">
+        <v>632</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>16</v>
+      </c>
+      <c r="K49" s="3">
+        <v>26.806539509536783</v>
+      </c>
+      <c r="L49" s="3">
+        <v>19.305379746835442</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="5"/>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1">
+        <v>17880</v>
+      </c>
+      <c r="D50" s="1">
+        <v>22861</v>
+      </c>
+      <c r="E50" s="1">
+        <v>81</v>
+      </c>
+      <c r="F50" s="1">
+        <v>74</v>
+      </c>
+      <c r="G50" s="1">
+        <v>16013</v>
+      </c>
+      <c r="H50" s="1">
+        <v>23634</v>
+      </c>
+      <c r="I50" s="1">
+        <v>27</v>
+      </c>
+      <c r="J50" s="1">
+        <v>58</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1.1165927683756947</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.96729288313446726</v>
+      </c>
+      <c r="M50" s="3">
+        <v>3</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1.2758620689655173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2113.7310765294396</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3075.1709188448476</v>
+      </c>
+      <c r="E51" s="3">
+        <v>7.8622241826266883</v>
+      </c>
+      <c r="F51" s="3">
+        <v>19.703602589957853</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1401.6582128268512</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2113.2824852208437</v>
+      </c>
+      <c r="I51" s="3">
+        <v>12.595009361425221</v>
+      </c>
+      <c r="J51" s="3">
+        <v>13.702480008064471</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1.5080217539384915</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1.4551632071674898</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.62423329407807748</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1.4379588642611763</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A43:A51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <f>strassen!A8</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>strassen!B8/strassen!C8</f>
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="D4">
+        <f>strassen!C8/strassen!D8</f>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="E4">
+        <f>strassen!E8/strassen!F8</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="F4">
+        <f>strassen!C8/strassen!E8</f>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5">
+        <f>strassen!A9</f>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>strassen!B9/strassen!C9</f>
+        <v>0.97641509433962259</v>
+      </c>
+      <c r="D5">
+        <f>strassen!C9/strassen!D9</f>
+        <v>1.0192307692307692</v>
+      </c>
+      <c r="E5">
+        <f>strassen!E9/strassen!F9</f>
+        <v>1.0122850122850122</v>
+      </c>
+      <c r="F5">
+        <f>strassen!C9/strassen!E9</f>
+        <v>2.058252427184466</v>
+      </c>
+      <c r="G5">
+        <f>sort!F9/sort!G9</f>
+        <v>0.63265306122448983</v>
+      </c>
+      <c r="H5">
+        <f>sort!H9/sort!I9</f>
+        <v>1.175</v>
+      </c>
+      <c r="I5">
+        <f>sort!F9/sort!H9</f>
+        <v>0.28267477203647418</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <f>strassen!A10</f>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f>strassen!B10/strassen!C10</f>
+        <v>0.98941469489414691</v>
+      </c>
+      <c r="D6">
+        <f>strassen!C10/strassen!D10</f>
+        <v>1.010062893081761</v>
+      </c>
+      <c r="E6">
+        <f>strassen!E10/strassen!F10</f>
+        <v>1.0017562346329469</v>
+      </c>
+      <c r="F6">
+        <f>strassen!C10/strassen!E10</f>
+        <v>2.2524544179523143</v>
+      </c>
+      <c r="G6">
+        <f>sort!F10/sort!G10</f>
+        <v>0.63192904656319293</v>
+      </c>
+      <c r="H6">
+        <f>sort!H10/sort!I10</f>
+        <v>1.1746987951807228</v>
+      </c>
+      <c r="I6">
+        <f>sort!F10/sort!H10</f>
+        <v>0.29230769230769232</v>
+      </c>
+      <c r="J6">
+        <f>sort!B10/sort!C10</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="K6">
+        <f>sort!D10/sort!E10</f>
+        <v>1.2846153846153847</v>
+      </c>
+      <c r="L6">
+        <f>sort!B10/sort!D10</f>
+        <v>0.71856287425149701</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7">
+        <f>strassen!A11</f>
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f>strassen!B11/strassen!C11</f>
+        <v>0.99482236737294882</v>
+      </c>
+      <c r="D7">
+        <f>strassen!C11/strassen!D11</f>
+        <v>1.0051240992794235</v>
+      </c>
+      <c r="E7">
+        <f>strassen!E11/strassen!F11</f>
+        <v>1.0002320077954618</v>
+      </c>
+      <c r="F7">
+        <f>strassen!C11/strassen!E11</f>
+        <v>2.3295602152532937</v>
+      </c>
+      <c r="G7">
+        <f>sort!F11/sort!G11</f>
+        <v>0.62552476910159527</v>
+      </c>
+      <c r="H7">
+        <f>sort!H11/sort!I11</f>
+        <v>1.1588124410933083</v>
+      </c>
+      <c r="I7">
+        <f>sort!F11/sort!H11</f>
+        <v>0.3029686864579097</v>
+      </c>
+      <c r="J7">
+        <f>sort!B11/sort!C11</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="K7">
+        <f>sort!D11/sort!E11</f>
+        <v>1.0994623655913978</v>
+      </c>
+      <c r="L7">
+        <f>sort!B11/sort!D11</f>
+        <v>0.75305623471882643</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <f>strassen!A12</f>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <f>strassen!B12/strassen!C12</f>
+        <v>1.0656220762042006</v>
+      </c>
+      <c r="D8">
+        <f>strassen!C12/strassen!D12</f>
+        <v>1.0076232479262273</v>
+      </c>
+      <c r="E8">
+        <f>strassen!E12/strassen!F12</f>
+        <v>1.0009358060586084</v>
+      </c>
+      <c r="F8">
+        <f>strassen!C12/strassen!E12</f>
+        <v>2.1870803099972953</v>
+      </c>
+      <c r="G8">
+        <f>sort!F12/sort!G12</f>
+        <v>0.61908006814310046</v>
+      </c>
+      <c r="H8">
+        <f>sort!H12/sort!I12</f>
+        <v>1.1416502946954814</v>
+      </c>
+      <c r="I8">
+        <f>sort!F12/sort!H12</f>
+        <v>0.31268284288418519</v>
+      </c>
+      <c r="J8">
+        <f>sort!B12/sort!C12</f>
+        <v>1.8126126126126125</v>
+      </c>
+      <c r="K8">
+        <f>sort!D12/sort!E12</f>
+        <v>1.0802919708029197</v>
+      </c>
+      <c r="L8">
+        <f>sort!B12/sort!D12</f>
+        <v>0.67972972972972978</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <f>strassen!A13</f>
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <f>strassen!B13/strassen!C13</f>
+        <v>1.1764713770998918</v>
+      </c>
+      <c r="D9">
+        <f>strassen!C13/strassen!D13</f>
+        <v>1.0089395818072275</v>
+      </c>
+      <c r="E9">
+        <f>strassen!E13/strassen!F13</f>
+        <v>1.0009785285367241</v>
+      </c>
+      <c r="F9">
+        <f>strassen!C13/strassen!E13</f>
+        <v>2.1214370386761288</v>
+      </c>
+      <c r="G9">
+        <f>sort!F13/sort!G13</f>
+        <v>0.61358077974392178</v>
+      </c>
+      <c r="H9">
+        <f>sort!H13/sort!I13</f>
+        <v>1.1262506359165678</v>
+      </c>
+      <c r="I9">
+        <f>sort!F13/sort!H13</f>
+        <v>0.3210871038169088</v>
+      </c>
+      <c r="J9">
+        <f>sort!B13/sort!C13</f>
+        <v>1.8015564202334631</v>
+      </c>
+      <c r="K9">
+        <f>sort!D13/sort!E13</f>
+        <v>1.1582200247218788</v>
+      </c>
+      <c r="L9">
+        <f>sort!B13/sort!D13</f>
+        <v>1.235325506937033</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10">
+        <f>strassen!A14</f>
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <f>strassen!B14/strassen!C14</f>
+        <v>1.3193220187159369</v>
+      </c>
+      <c r="D10">
+        <f>strassen!C14/strassen!D14</f>
+        <v>1.0096611147882268</v>
+      </c>
+      <c r="E10">
+        <f>strassen!E14/strassen!F14</f>
+        <v>1.0009603236431726</v>
+      </c>
+      <c r="F10">
+        <f>strassen!C14/strassen!E14</f>
+        <v>2.0877096664889065</v>
+      </c>
+      <c r="G10">
+        <f>sort!F14/sort!G14</f>
+        <v>0.60907787268532954</v>
+      </c>
+      <c r="H10">
+        <f>sort!H14/sort!I14</f>
+        <v>1.1131348642381629</v>
+      </c>
+      <c r="I10">
+        <f>sort!F14/sort!H14</f>
+        <v>0.32822632127137719</v>
+      </c>
+      <c r="J10">
+        <f>sort!B14/sort!C14</f>
+        <v>1.6402824228911186</v>
+      </c>
+      <c r="K10">
+        <f>sort!D14/sort!E14</f>
+        <v>1.1131772268135904</v>
+      </c>
+      <c r="L10">
+        <f>sort!B14/sort!D14</f>
+        <v>0.45514539080222727</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11">
+        <f>strassen!A15</f>
+        <v>256</v>
+      </c>
+      <c r="C11">
+        <f>strassen!B15/strassen!C15</f>
+        <v>1.4920230067008307</v>
+      </c>
+      <c r="D11">
+        <f>strassen!C15/strassen!D15</f>
+        <v>1.0100628083757313</v>
+      </c>
+      <c r="G11">
+        <f>sort!F15/sort!G15</f>
+        <v>0.6054174580890247</v>
+      </c>
+      <c r="H11">
+        <f>sort!H15/sort!I15</f>
+        <v>1.1021307246473919</v>
+      </c>
+      <c r="I11">
+        <f>sort!F15/sort!H15</f>
+        <v>0.33426552169617751</v>
+      </c>
+      <c r="J11">
+        <f>sort!B15/sort!C15</f>
+        <v>1.6455588610284744</v>
+      </c>
+      <c r="K11">
+        <f>sort!D15/sort!E15</f>
+        <v>1.0564975247524753</v>
+      </c>
+      <c r="L11">
+        <f>sort!B15/sort!D15</f>
+        <v>0.68037251801089438</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12">
+        <f>strassen!A16</f>
+        <v>512</v>
+      </c>
+      <c r="C12">
+        <f>strassen!B16/strassen!C16</f>
+        <v>1.6951561313928676</v>
+      </c>
+      <c r="D12">
+        <f>strassen!C16/strassen!D16</f>
+        <v>1.0102894628238905</v>
+      </c>
+      <c r="G12">
+        <f>sort!F16/sort!G16</f>
+        <v>0.60242582617377693</v>
+      </c>
+      <c r="H12">
+        <f>sort!H16/sort!I16</f>
+        <v>1.0929023542447747</v>
+      </c>
+      <c r="I12">
+        <f>sort!F16/sort!H16</f>
+        <v>0.33938876273410973</v>
+      </c>
+      <c r="J12">
+        <f>sort!B16/sort!C16</f>
+        <v>1.6453389542394778</v>
+      </c>
+      <c r="K12">
+        <f>sort!D16/sort!E16</f>
+        <v>1.0611822059719682</v>
+      </c>
+      <c r="L12">
+        <f>sort!B16/sort!D16</f>
+        <v>0.69478580452509475</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13">
+        <f>B12*2</f>
+        <v>1024</v>
+      </c>
+      <c r="G13">
+        <f>sort!F17/sort!G17</f>
+        <v>0.59995535091391095</v>
+      </c>
+      <c r="H13">
+        <f>sort!H17/sort!I17</f>
+        <v>1.0851175315256543</v>
+      </c>
+      <c r="I13">
+        <f>sort!F17/sort!H17</f>
+        <v>0.34376269159308875</v>
+      </c>
+      <c r="J13">
+        <f>sort!B17/sort!C17</f>
+        <v>1.6141065173786786</v>
+      </c>
+      <c r="K13">
+        <f>sort!D17/sort!E17</f>
+        <v>1.0600332038591656</v>
+      </c>
+      <c r="L13">
+        <f>sort!B17/sort!D17</f>
+        <v>0.79661943529203172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14">
+        <f t="shared" ref="B14:B15" si="0">B13*2</f>
+        <v>2048</v>
+      </c>
+      <c r="G14">
+        <f>sort!F18/sort!G18</f>
+        <v>0.59789069452554655</v>
+      </c>
+      <c r="H14">
+        <f>sort!H18/sort!I18</f>
+        <v>1.0784944036471404</v>
+      </c>
+      <c r="I14">
+        <f>sort!F18/sort!H18</f>
+        <v>0.34752649731506718</v>
+      </c>
+      <c r="J14">
+        <f>sort!B18/sort!C18</f>
+        <v>1.5967707997250551</v>
+      </c>
+      <c r="K14">
+        <f>sort!D18/sort!E18</f>
+        <v>1.062687960999082</v>
+      </c>
+      <c r="L14">
+        <f>sort!B18/sort!D18</f>
+        <v>0.84771777743023746</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="G15">
+        <f>sort!F19/sort!G19</f>
+        <v>0.59614434299008268</v>
+      </c>
+      <c r="H15">
+        <f>sort!H19/sort!I19</f>
+        <v>1.072807016243885</v>
+      </c>
+      <c r="I15">
+        <f>sort!F19/sort!H19</f>
+        <v>0.35079233408228006</v>
+      </c>
+      <c r="J15">
+        <f>sort!B19/sort!C19</f>
+        <v>1.5894321962442726</v>
+      </c>
+      <c r="K15">
+        <f>sort!D19/sort!E19</f>
+        <v>1.0517791531378173</v>
+      </c>
+      <c r="L15">
+        <f>sort!B19/sort!D19</f>
+        <v>0.80980671630856127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/timing.xlsx
+++ b/results/timing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="8616" windowHeight="3024" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="8616" windowHeight="3024" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="strassen" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Sheet4" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="59">
   <si>
     <t>n</t>
   </si>
@@ -195,6 +194,12 @@
   <si>
     <t>DSL: Naive/Strassen</t>
   </si>
+  <si>
+    <t>shortcut</t>
+  </si>
+  <si>
+    <t>vhls/miser_indexed/short_cut</t>
+  </si>
 </sst>
 </file>
 
@@ -278,10 +283,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,51 +314,8 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>strassen!$A$8:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -396,7 +358,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -437,90 +399,74 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="87724416"/>
-        <c:axId val="87725952"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="0"/>
+          <c:order val="2"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>strassen!$D$15:$D$16</c:f>
+              <c:f>strassen!$H$8:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>133721815</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>940909566</c:v>
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1265380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9154658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87733376"/>
-        <c:axId val="87727488"/>
+        <c:axId val="138870784"/>
+        <c:axId val="138872320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87724416"/>
+        <c:axId val="138870784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87725952"/>
+        <c:crossAx val="138872320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87725952"/>
+        <c:axId val="138872320"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87724416"/>
+        <c:crossAx val="138870784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="87727488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87733376"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="87733376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="87727488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -530,7 +476,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -546,9 +492,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14139369258269335"/>
-          <c:y val="5.5973430850776114E-2"/>
-          <c:w val="0.52506454519020473"/>
+          <c:x val="0.14139369258269341"/>
+          <c:y val="5.5973430850776128E-2"/>
+          <c:w val="0.52506454519020451"/>
           <c:h val="0.71155011945940161"/>
         </c:manualLayout>
       </c:layout>
@@ -1269,11 +1215,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="193664896"/>
-        <c:axId val="193666432"/>
+        <c:axId val="155235840"/>
+        <c:axId val="155250688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193664896"/>
+        <c:axId val="155235840"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1308,7 +1254,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1326,12 +1271,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193666432"/>
+        <c:crossAx val="155250688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193666432"/>
+        <c:axId val="155250688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1307,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1380,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193664896"/>
+        <c:crossAx val="155235840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1400,10 +1344,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67317111338172841"/>
-          <c:y val="0.11230906629345704"/>
-          <c:w val="0.31566383796789083"/>
-          <c:h val="0.52095678105894361"/>
+          <c:x val="0.67317111338172864"/>
+          <c:y val="0.11230906629345702"/>
+          <c:w val="0.31566383796789094"/>
+          <c:h val="0.52095678105894339"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1548,11 +1492,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="221502848"/>
-        <c:axId val="221644672"/>
+        <c:axId val="155262336"/>
+        <c:axId val="155297664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221502848"/>
+        <c:axId val="155262336"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1596,12 +1540,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221644672"/>
+        <c:crossAx val="155297664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221644672"/>
+        <c:axId val="155297664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
@@ -1647,7 +1591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221502848"/>
+        <c:crossAx val="155262336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1687,7 +1631,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="1.5748031496063" right="1.5748031496063" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
@@ -2069,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2080,10 +2024,11 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2096,14 +2041,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -2111,13 +2056,16 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -2125,13 +2073,16 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2145,13 +2096,16 @@
         <v>5851</v>
       </c>
       <c r="E4">
+        <v>6846</v>
+      </c>
+      <c r="H4">
         <v>9838</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2165,13 +2119,16 @@
         <v>5219</v>
       </c>
       <c r="E5">
+        <v>5794</v>
+      </c>
+      <c r="H5">
         <v>12201</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2185,13 +2142,16 @@
         <v>3</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2205,13 +2165,16 @@
         <v>7.5</v>
       </c>
       <c r="E7">
+        <v>8.5</v>
+      </c>
+      <c r="H7">
         <v>80</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2225,13 +2188,16 @@
         <v>120</v>
       </c>
       <c r="E8">
+        <v>123</v>
+      </c>
+      <c r="H8">
         <v>80</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2245,13 +2211,16 @@
         <v>832</v>
       </c>
       <c r="E9">
+        <v>847</v>
+      </c>
+      <c r="H9">
         <v>412</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2265,13 +2234,16 @@
         <v>6360</v>
       </c>
       <c r="E10">
+        <v>6423</v>
+      </c>
+      <c r="H10">
         <v>2852</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>2847</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>16</v>
       </c>
@@ -2285,13 +2257,16 @@
         <v>49960</v>
       </c>
       <c r="E11">
+        <v>50215</v>
+      </c>
+      <c r="H11">
         <v>21556</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>21551</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>32</v>
       </c>
@@ -2305,13 +2280,16 @@
         <v>369134</v>
       </c>
       <c r="E12">
+        <v>371958</v>
+      </c>
+      <c r="H12">
         <v>170066</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>169907</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>64</v>
       </c>
@@ -2325,13 +2303,16 @@
         <v>2660639</v>
       </c>
       <c r="E13">
+        <v>2684511</v>
+      </c>
+      <c r="H13">
         <v>1265380</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>1264143</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>128</v>
       </c>
@@ -2345,13 +2326,16 @@
         <v>18929389</v>
       </c>
       <c r="E14">
+        <v>19112894</v>
+      </c>
+      <c r="H14">
         <v>9154658</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>9145875</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>256</v>
       </c>
@@ -2364,8 +2348,11 @@
       <c r="D15">
         <v>133721815</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15">
+        <v>135071831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>512</v>
       </c>
@@ -2377,6 +2364,9 @@
       </c>
       <c r="D16">
         <v>940909566</v>
+      </c>
+      <c r="E16">
+        <v>950621830</v>
       </c>
     </row>
   </sheetData>
@@ -2387,10 +2377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2399,7 +2389,7 @@
     <col min="4" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2410,13 +2400,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2427,13 +2420,16 @@
         <v>7820</v>
       </c>
       <c r="D3">
+        <v>7419</v>
+      </c>
+      <c r="E3">
         <v>17880</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>16013</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2444,13 +2440,16 @@
         <v>6847</v>
       </c>
       <c r="D4">
+        <v>5925</v>
+      </c>
+      <c r="E4">
         <v>22861</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>23634</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2461,13 +2460,16 @@
         <v>70</v>
       </c>
       <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
         <v>81</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2478,13 +2480,16 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>74</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2494,8 +2499,11 @@
       <c r="C7">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <f>A7*2</f>
         <v>2</v>
@@ -2506,8 +2514,11 @@
       <c r="C8">
         <v>331</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" ref="A9:A23" si="0">A8*2</f>
         <v>4</v>
@@ -2518,8 +2529,11 @@
       <c r="C9">
         <v>615</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2530,8 +2544,11 @@
       <c r="C10">
         <v>1183</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2543,13 +2560,16 @@
         <v>2319</v>
       </c>
       <c r="D11">
+        <v>2313</v>
+      </c>
+      <c r="E11">
         <v>7749</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7743</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2561,13 +2581,16 @@
         <v>4591</v>
       </c>
       <c r="D12">
+        <v>4585</v>
+      </c>
+      <c r="E12">
         <v>15318</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>15312</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2579,13 +2602,16 @@
         <v>9700</v>
       </c>
       <c r="D13">
+        <v>9765</v>
+      </c>
+      <c r="E13">
         <v>31820</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>31773</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -2596,11 +2622,14 @@
       <c r="C14">
         <v>18788</v>
       </c>
-      <c r="E14">
+      <c r="D14">
+        <v>18853</v>
+      </c>
+      <c r="F14">
         <v>62877</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>256</v>
@@ -2611,11 +2640,14 @@
       <c r="C15">
         <v>38264</v>
       </c>
-      <c r="E15">
+      <c r="D15">
+        <v>38511</v>
+      </c>
+      <c r="F15">
         <v>124562</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>512</v>
@@ -2626,11 +2658,14 @@
       <c r="C16">
         <v>77590</v>
       </c>
-      <c r="E16">
+      <c r="D16">
+        <v>78289</v>
+      </c>
+      <c r="F16">
         <v>246003</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -2641,11 +2676,14 @@
       <c r="C17">
         <v>156803</v>
       </c>
-      <c r="E17">
+      <c r="D17">
+        <v>158538</v>
+      </c>
+      <c r="F17">
         <v>489526</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -2656,11 +2694,14 @@
       <c r="C18">
         <v>316385</v>
       </c>
-      <c r="E18">
+      <c r="D18">
+        <v>320646</v>
+      </c>
+      <c r="F18">
         <v>975762</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -2671,11 +2712,14 @@
       <c r="C19">
         <v>637589</v>
       </c>
-      <c r="E19">
+      <c r="D19">
+        <v>646836</v>
+      </c>
+      <c r="F19">
         <v>1931529</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -2686,11 +2730,14 @@
       <c r="C20">
         <v>1283873</v>
       </c>
-      <c r="E20">
+      <c r="D20">
+        <v>1304368</v>
+      </c>
+      <c r="F20">
         <v>3852972</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -2701,11 +2748,14 @@
       <c r="C21">
         <v>2584805</v>
       </c>
-      <c r="E21">
+      <c r="D21">
+        <v>2629764</v>
+      </c>
+      <c r="F21">
         <v>7719797</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -2716,11 +2766,14 @@
       <c r="C22">
         <v>5054677</v>
       </c>
-      <c r="E22">
+      <c r="D22">
+        <v>5133364</v>
+      </c>
+      <c r="F22">
         <v>15360188</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>65536</v>
@@ -2730,6 +2783,9 @@
       </c>
       <c r="C23">
         <v>10162521</v>
+      </c>
+      <c r="D23">
+        <v>10332360</v>
       </c>
     </row>
   </sheetData>
@@ -3531,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E34"/>
+  <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3542,21 +3598,21 @@
     <col min="1" max="1" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -3564,13 +3620,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -3578,13 +3637,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3595,13 +3657,16 @@
         <v>309</v>
       </c>
       <c r="D6">
+        <v>324</v>
+      </c>
+      <c r="E6">
         <v>687</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3612,13 +3677,16 @@
         <v>272</v>
       </c>
       <c r="D7">
+        <v>303</v>
+      </c>
+      <c r="E7">
         <v>998</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3634,25 +3702,31 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3663,7 +3737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3673,14 +3747,14 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3690,14 +3764,14 @@
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3707,14 +3781,14 @@
       <c r="C13">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>73</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3724,14 +3798,14 @@
       <c r="C14">
         <v>33</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>132</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>5</v>
       </c>
@@ -3741,14 +3815,14 @@
       <c r="C15">
         <v>57</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>250</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>6</v>
       </c>
@@ -3758,14 +3832,14 @@
       <c r="C16">
         <v>93</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>427</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>7</v>
       </c>
@@ -3775,14 +3849,14 @@
       <c r="C17">
         <v>153</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>722</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3792,14 +3866,14 @@
       <c r="C18">
         <v>249</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1194</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>710</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3809,14 +3883,14 @@
       <c r="C19">
         <v>405</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1961</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1165</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3826,14 +3900,14 @@
       <c r="C20">
         <v>657</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3200</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>11</v>
       </c>
@@ -3843,14 +3917,14 @@
       <c r="C21">
         <v>1065</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5206</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>3090</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3860,14 +3934,14 @@
       <c r="C22">
         <v>1725</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>8451</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5015</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>13</v>
       </c>
@@ -3877,14 +3951,14 @@
       <c r="C23">
         <v>2793</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>13702</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8130</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3894,14 +3968,14 @@
       <c r="C24">
         <v>4521</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>22198</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>13170</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>15</v>
       </c>
@@ -3911,14 +3985,14 @@
       <c r="C25">
         <v>7317</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>35945</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>21325</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3928,14 +4002,14 @@
       <c r="C26">
         <v>11841</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>58188</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>34520</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3945,14 +4019,14 @@
       <c r="C27">
         <v>19161</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>94178</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>55870</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>18</v>
       </c>
@@ -3962,14 +4036,14 @@
       <c r="C28">
         <v>31005</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>152411</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>90415</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>19</v>
       </c>
@@ -3980,7 +4054,7 @@
         <v>50169</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>20</v>
       </c>
@@ -3991,7 +4065,7 @@
         <v>81177</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>21</v>
       </c>
@@ -4002,7 +4076,7 @@
         <v>131349</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>22</v>
       </c>
@@ -4528,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="R18">
-        <f>fib!D6</f>
+        <f>fib!E6</f>
         <v>687</v>
       </c>
       <c r="S18">
@@ -4552,11 +4626,11 @@
         <v>2261</v>
       </c>
       <c r="X18">
-        <f>strassen!E4</f>
+        <f>strassen!H4</f>
         <v>9838</v>
       </c>
       <c r="Y18">
-        <f>miser!D3</f>
+        <f>miser!E3</f>
         <v>17880</v>
       </c>
       <c r="Z18">
@@ -4608,7 +4682,7 @@
         <v>19</v>
       </c>
       <c r="R19">
-        <f>fib!D7</f>
+        <f>fib!E7</f>
         <v>998</v>
       </c>
       <c r="S19">
@@ -4632,11 +4706,11 @@
         <v>3642</v>
       </c>
       <c r="X19">
-        <f>strassen!E5</f>
+        <f>strassen!H5</f>
         <v>12201</v>
       </c>
       <c r="Y19">
-        <f>miser!D4</f>
+        <f>miser!E4</f>
         <v>22861</v>
       </c>
       <c r="Z19">
@@ -4688,7 +4762,7 @@
         <v>20</v>
       </c>
       <c r="R20">
-        <f>fib!D8</f>
+        <f>fib!E8</f>
         <v>0</v>
       </c>
       <c r="S20">
@@ -4712,11 +4786,11 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <f>strassen!E6</f>
+        <f>strassen!H6</f>
         <v>2</v>
       </c>
       <c r="Y20">
-        <f>miser!D5</f>
+        <f>miser!E5</f>
         <v>81</v>
       </c>
       <c r="Z20">
@@ -4730,7 +4804,7 @@
       </c>
       <c r="C21">
         <f>fib!B9</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <f>others!F9</f>
@@ -4762,13 +4836,13 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>2.935109049605773</v>
+        <v>3.0425770390772873</v>
       </c>
       <c r="Q21" t="s">
         <v>36</v>
       </c>
       <c r="R21">
-        <f>fib!D9</f>
+        <f>fib!E9</f>
         <v>14</v>
       </c>
       <c r="S21">
@@ -4792,11 +4866,11 @@
         <v>18</v>
       </c>
       <c r="X21">
-        <f>strassen!E7</f>
+        <f>strassen!H7</f>
         <v>80</v>
       </c>
       <c r="Y21">
-        <f>miser!D6</f>
+        <f>miser!E6</f>
         <v>74</v>
       </c>
       <c r="Z21">
@@ -4854,7 +4928,7 @@
         <v>18</v>
       </c>
       <c r="R22">
-        <f>fib!E6</f>
+        <f>fib!F6</f>
         <v>409</v>
       </c>
       <c r="S22">
@@ -4878,11 +4952,11 @@
         <v>1660</v>
       </c>
       <c r="X22">
-        <f>strassen!F4</f>
+        <f>strassen!I4</f>
         <v>367</v>
       </c>
       <c r="Y22">
-        <f>miser!E3</f>
+        <f>miser!F3</f>
         <v>16013</v>
       </c>
       <c r="Z22">
@@ -4934,7 +5008,7 @@
         <v>19</v>
       </c>
       <c r="R23">
-        <f>fib!E7</f>
+        <f>fib!F7</f>
         <v>535</v>
       </c>
       <c r="S23">
@@ -4958,11 +5032,11 @@
         <v>2693</v>
       </c>
       <c r="X23">
-        <f>strassen!F5</f>
+        <f>strassen!I5</f>
         <v>632</v>
       </c>
       <c r="Y23">
-        <f>miser!E4</f>
+        <f>miser!F4</f>
         <v>23634</v>
       </c>
       <c r="Z23">
@@ -5014,7 +5088,7 @@
         <v>20</v>
       </c>
       <c r="R24">
-        <f>fib!E8</f>
+        <f>fib!F8</f>
         <v>0</v>
       </c>
       <c r="S24">
@@ -5038,11 +5112,11 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <f>strassen!F6</f>
+        <f>strassen!I6</f>
         <v>2</v>
       </c>
       <c r="Y24">
-        <f>miser!E5</f>
+        <f>miser!F5</f>
         <v>27</v>
       </c>
       <c r="Z24">
@@ -5094,7 +5168,7 @@
         <v>36</v>
       </c>
       <c r="R25">
-        <f>fib!E9</f>
+        <f>fib!F9</f>
         <v>6</v>
       </c>
       <c r="S25">
@@ -5118,11 +5192,11 @@
         <v>10</v>
       </c>
       <c r="X25">
-        <f>strassen!F7</f>
+        <f>strassen!I7</f>
         <v>16</v>
       </c>
       <c r="Y25">
-        <f>miser!E6</f>
+        <f>miser!F6</f>
         <v>58</v>
       </c>
       <c r="Z25">
@@ -5382,7 +5456,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
@@ -5414,7 +5488,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>1.0157684228081092</v>
+        <v>1.0529604277124931</v>
       </c>
       <c r="Q29" t="s">
         <v>36</v>
@@ -5458,24 +5532,24 @@
     </row>
     <row r="32" spans="1:26">
       <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14">
       <c r="B33" s="1" t="s">
@@ -5549,16 +5623,16 @@
       <c r="J34" s="1">
         <v>3</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>1.1262135922330097</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>1.1286764705882353</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5591,16 +5665,16 @@
       <c r="J35" s="1">
         <v>2</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>0.96308724832214765</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>1.1241610738255035</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -5633,16 +5707,16 @@
       <c r="J36" s="1">
         <v>1.5</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>0.96078431372549022</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>0.97382198952879584</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5675,16 +5749,16 @@
       <c r="J37" s="1">
         <v>2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>1.3597464342313788</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>1.2820945945945945</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5717,16 +5791,16 @@
       <c r="J38" s="1">
         <v>4.5</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>6.2413333333333334</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>0.60145343277873398</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>0.57377049180327866</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>0.88888888888888884</v>
       </c>
     </row>
@@ -5759,16 +5833,16 @@
       <c r="J39" s="1">
         <v>2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>1.2647814910025708</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>1.3256021409455843</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5801,16 +5875,16 @@
       <c r="J40" s="1">
         <v>7.5</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>1.0934882925995557</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <v>1.0731940984863</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>1</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="2">
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -5843,16 +5917,16 @@
       <c r="J41" s="1">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>0.93491048593350379</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>0.85059149992697536</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <v>0.31428571428571428</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -5861,40 +5935,40 @@
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>1657.6009125417913</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>1104.4168845512913</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>13.219164082843088</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>2.935109049605773</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>1222.3598246198294</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>1084.9419833407951</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>23.39823202363122</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>2.8895454748353107</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>1.3560662573782867</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>1.0179501775297954</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <v>0.56496422761738108</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="2">
         <v>1.0157684228081092</v>
       </c>
     </row>
@@ -5929,16 +6003,16 @@
       <c r="J43" s="1">
         <v>6</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>1.6797066014669926</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>1.8654205607476635</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="2">
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -5971,16 +6045,16 @@
       <c r="J44" s="1">
         <v>6</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>0.30467091295116772</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>0.1899092970521542</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -6013,16 +6087,16 @@
       <c r="J45" s="1">
         <v>10</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>1.1541284403669725</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>1.7914614121510672</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="2">
         <v>1.2</v>
       </c>
     </row>
@@ -6055,16 +6129,16 @@
       <c r="J46" s="1">
         <v>12</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>1.0822351080653663</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <v>1.1298076923076923</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -6097,16 +6171,16 @@
       <c r="J47" s="1">
         <v>31</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>1.0263432446531038</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="2">
         <v>1.1102447869446963</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <v>8.1081081081081086E-2</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="2">
         <v>1.5161290322580645</v>
       </c>
     </row>
@@ -6139,16 +6213,16 @@
       <c r="J48" s="1">
         <v>10</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>1.3620481927710844</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="2">
         <v>1.3523950984032678</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="2">
         <v>1.8</v>
       </c>
     </row>
@@ -6181,16 +6255,16 @@
       <c r="J49" s="1">
         <v>16</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>26.806539509536783</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="2">
         <v>19.305379746835442</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <v>1</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="2">
         <v>5</v>
       </c>
     </row>
@@ -6223,16 +6297,16 @@
       <c r="J50" s="1">
         <v>58</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>1.1165927683756947</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
         <v>0.96729288313446726</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>3</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="2">
         <v>1.2758620689655173</v>
       </c>
     </row>
@@ -6241,40 +6315,40 @@
       <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>2113.7310765294396</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>3075.1709188448476</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>7.8622241826266883</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>19.703602589957853</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>1401.6582128268512</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>2113.2824852208437</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>12.595009361425221</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>13.702480008064471</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>1.5080217539384915</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="2">
         <v>1.4551632071674898</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <v>0.62423329407807748</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="2">
         <v>1.4379588642611763</v>
       </c>
     </row>
@@ -6369,11 +6443,11 @@
         <v>1.0333333333333334</v>
       </c>
       <c r="E4">
-        <f>strassen!E8/strassen!F8</f>
+        <f>strassen!H8/strassen!I8</f>
         <v>1.0666666666666667</v>
       </c>
       <c r="F4">
-        <f>strassen!C8/strassen!E8</f>
+        <f>strassen!C8/strassen!H8</f>
         <v>1.55</v>
       </c>
     </row>
@@ -6391,11 +6465,11 @@
         <v>1.0192307692307692</v>
       </c>
       <c r="E5">
-        <f>strassen!E9/strassen!F9</f>
+        <f>strassen!H9/strassen!I9</f>
         <v>1.0122850122850122</v>
       </c>
       <c r="F5">
-        <f>strassen!C9/strassen!E9</f>
+        <f>strassen!C9/strassen!H9</f>
         <v>2.058252427184466</v>
       </c>
       <c r="G5">
@@ -6425,11 +6499,11 @@
         <v>1.010062893081761</v>
       </c>
       <c r="E6">
-        <f>strassen!E10/strassen!F10</f>
+        <f>strassen!H10/strassen!I10</f>
         <v>1.0017562346329469</v>
       </c>
       <c r="F6">
-        <f>strassen!C10/strassen!E10</f>
+        <f>strassen!C10/strassen!H10</f>
         <v>2.2524544179523143</v>
       </c>
       <c r="G6">
@@ -6471,11 +6545,11 @@
         <v>1.0051240992794235</v>
       </c>
       <c r="E7">
-        <f>strassen!E11/strassen!F11</f>
+        <f>strassen!H11/strassen!I11</f>
         <v>1.0002320077954618</v>
       </c>
       <c r="F7">
-        <f>strassen!C11/strassen!E11</f>
+        <f>strassen!C11/strassen!H11</f>
         <v>2.3295602152532937</v>
       </c>
       <c r="G7">
@@ -6517,11 +6591,11 @@
         <v>1.0076232479262273</v>
       </c>
       <c r="E8">
-        <f>strassen!E12/strassen!F12</f>
+        <f>strassen!H12/strassen!I12</f>
         <v>1.0009358060586084</v>
       </c>
       <c r="F8">
-        <f>strassen!C12/strassen!E12</f>
+        <f>strassen!C12/strassen!H12</f>
         <v>2.1870803099972953</v>
       </c>
       <c r="G8">
@@ -6563,11 +6637,11 @@
         <v>1.0089395818072275</v>
       </c>
       <c r="E9">
-        <f>strassen!E13/strassen!F13</f>
+        <f>strassen!H13/strassen!I13</f>
         <v>1.0009785285367241</v>
       </c>
       <c r="F9">
-        <f>strassen!C13/strassen!E13</f>
+        <f>strassen!C13/strassen!H13</f>
         <v>2.1214370386761288</v>
       </c>
       <c r="G9">
@@ -6609,11 +6683,11 @@
         <v>1.0096611147882268</v>
       </c>
       <c r="E10">
-        <f>strassen!E14/strassen!F14</f>
+        <f>strassen!H14/strassen!I14</f>
         <v>1.0009603236431726</v>
       </c>
       <c r="F10">
-        <f>strassen!C14/strassen!E14</f>
+        <f>strassen!C14/strassen!H14</f>
         <v>2.0877096664889065</v>
       </c>
       <c r="G10">

--- a/results/timing.xlsx
+++ b/results/timing.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="8616" windowHeight="3024" activeTab="3"/>
+    <workbookView xWindow="36" yWindow="48" windowWidth="8748" windowHeight="6576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="strassen" sheetId="1" r:id="rId1"/>
     <sheet name="miser" sheetId="2" r:id="rId2"/>
-    <sheet name="sort" sheetId="3" r:id="rId3"/>
-    <sheet name="fib" sheetId="4" r:id="rId4"/>
-    <sheet name="others" sheetId="5" r:id="rId5"/>
-    <sheet name="resource_comparison" sheetId="6" r:id="rId6"/>
-    <sheet name="n_log_n_times" sheetId="8" r:id="rId7"/>
-    <sheet name="strassen_speedup" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="sort" sheetId="3" r:id="rId4"/>
+    <sheet name="fib" sheetId="4" r:id="rId5"/>
+    <sheet name="others" sheetId="5" r:id="rId6"/>
+    <sheet name="resource_comparison" sheetId="6" r:id="rId7"/>
+    <sheet name="n_log_n_times" sheetId="8" r:id="rId8"/>
+    <sheet name="strassen_speedup" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="70">
   <si>
     <t>n</t>
   </si>
@@ -200,11 +201,47 @@
   <si>
     <t>vhls/miser_indexed/short_cut</t>
   </si>
+  <si>
+    <t>n=4096</t>
+  </si>
+  <si>
+    <t>n=128</t>
+  </si>
+  <si>
+    <t>n=32768</t>
+  </si>
+  <si>
+    <t>n=18</t>
+  </si>
+  <si>
+    <t>m=3,n=4</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>D/M</t>
+  </si>
+  <si>
+    <t>Geomean</t>
+  </si>
+  <si>
+    <t>Time (cycles)</t>
+  </si>
+  <si>
+    <t>T $\times$ A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -280,21 +317,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,24 +482,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138870784"/>
-        <c:axId val="138872320"/>
+        <c:axId val="128303488"/>
+        <c:axId val="128305024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138870784"/>
+        <c:axId val="128303488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138872320"/>
+        <c:crossAx val="128305024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138872320"/>
+        <c:axId val="128305024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -463,20 +508,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138870784"/>
+        <c:crossAx val="128303488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -492,9 +536,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14139369258269341"/>
-          <c:y val="5.5973430850776128E-2"/>
-          <c:w val="0.52506454519020451"/>
+          <c:x val="0.14139369258269346"/>
+          <c:y val="5.5973430850776162E-2"/>
+          <c:w val="0.52506454519020429"/>
           <c:h val="0.71155011945940161"/>
         </c:manualLayout>
       </c:layout>
@@ -1215,11 +1259,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155235840"/>
-        <c:axId val="155250688"/>
+        <c:axId val="129993344"/>
+        <c:axId val="130008192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155235840"/>
+        <c:axId val="129993344"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1271,12 +1315,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155250688"/>
+        <c:crossAx val="130008192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155250688"/>
+        <c:axId val="130008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155235840"/>
+        <c:crossAx val="129993344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1344,10 +1388,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67317111338172864"/>
-          <c:y val="0.11230906629345702"/>
-          <c:w val="0.31566383796789094"/>
-          <c:h val="0.52095678105894339"/>
+          <c:x val="0.67317111338172886"/>
+          <c:y val="0.11230906629345697"/>
+          <c:w val="0.31566383796789116"/>
+          <c:h val="0.52095678105894316"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1492,11 +1536,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155262336"/>
-        <c:axId val="155297664"/>
+        <c:axId val="129864448"/>
+        <c:axId val="129866752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155262336"/>
+        <c:axId val="129864448"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1522,7 +1566,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1540,12 +1583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155297664"/>
+        <c:crossAx val="129866752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155297664"/>
+        <c:axId val="129866752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
@@ -1573,7 +1616,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1591,7 +1633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155262336"/>
+        <c:crossAx val="129864448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2798,10 +2840,594 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <f>fib!B28</f>
+        <v>31005</v>
+      </c>
+      <c r="D4" s="1">
+        <f>fib!C28</f>
+        <v>31005</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <f>GEOMEAN(resource_comparison!K34:N34)</f>
+        <v>1.0832534444712105</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4*F4</f>
+        <v>1.0832534444712105</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <f>others!F10</f>
+        <v>46207</v>
+      </c>
+      <c r="D5" s="1">
+        <f>others!G10</f>
+        <v>41233</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E11" si="0">C5/D5</f>
+        <v>1.1206315329954164</v>
+      </c>
+      <c r="F5" s="2">
+        <f>GEOMEAN(resource_comparison!K35:N35)</f>
+        <v>0.93293591646063911</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G21" si="1">E5*F5</f>
+        <v>1.0454774062497698</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <f>sort!J19</f>
+        <v>45053</v>
+      </c>
+      <c r="D6" s="1">
+        <f>sort!K19</f>
+        <v>49150</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91664292980671414</v>
+      </c>
+      <c r="F6" s="2">
+        <f>GEOMEAN(resource_comparison!K36:N36)</f>
+        <v>0.97806674683129002</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89653796836195543</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <f>sort!B19</f>
+        <v>243172</v>
+      </c>
+      <c r="D7" s="1">
+        <f>sort!C19</f>
+        <v>152993</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5894321962442726</v>
+      </c>
+      <c r="F7" s="2">
+        <f>GEOMEAN(resource_comparison!K37:N37)</f>
+        <v>1.2035366851387941</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.912939956720705</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <f>sort!F19</f>
+        <v>507881</v>
+      </c>
+      <c r="D8" s="1">
+        <f>sort!G19</f>
+        <v>851943</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59614434299008268</v>
+      </c>
+      <c r="F8" s="2">
+        <f>GEOMEAN(resource_comparison!K38:N38)</f>
+        <v>1.1762950464460979</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70124163762609781</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <f>others!B10</f>
+        <v>107183</v>
+      </c>
+      <c r="D9" s="1">
+        <f>others!C10</f>
+        <v>87860</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2199294331891646</v>
+      </c>
+      <c r="F9" s="2">
+        <f>GEOMEAN(resource_comparison!K39:N39)</f>
+        <v>1.1879811950030215</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4492532258594224</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <f>strassen!C14</f>
+        <v>19112268</v>
+      </c>
+      <c r="D10" s="1">
+        <f>strassen!D14</f>
+        <v>18929389</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0096611147882268</v>
+      </c>
+      <c r="F10" s="2">
+        <f>GEOMEAN(resource_comparison!K40:N40)</f>
+        <v>1.0738967274862978</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0842717670412441</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <f>miser!B22</f>
+        <v>5132855</v>
+      </c>
+      <c r="D11" s="1">
+        <f>miser!C22</f>
+        <v>5054677</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0154664679859859</v>
+      </c>
+      <c r="F11" s="2">
+        <f>GEOMEAN(resource_comparison!K41:N41)</f>
+        <v>0.78248629956176907</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.79458859886341382</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4">
+        <f>GEOMEAN(C4:C11)</f>
+        <v>309326.39909504057</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:E12" si="2">GEOMEAN(D4:D11)</f>
+        <v>301812.99631390633</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0248942321003294</v>
+      </c>
+      <c r="F12" s="2">
+        <f>GEOMEAN(F4:F11)</f>
+        <v>1.0426699366017438</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0686264040075433</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <f>fib!E28</f>
+        <v>152411</v>
+      </c>
+      <c r="D13" s="1">
+        <f>fib!F28</f>
+        <v>90415</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E19" si="3">C13/D13</f>
+        <v>1.6856826853951226</v>
+      </c>
+      <c r="F13" s="2">
+        <f>GEOMEAN(resource_comparison!K43:N43)</f>
+        <v>1.9408664724768689</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2716850073181671</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>J4</f>
+        <v>n=18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <f>others!H10</f>
+        <v>246279</v>
+      </c>
+      <c r="D14" s="1">
+        <f>others!I10</f>
+        <v>175331</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4046517729323393</v>
+      </c>
+      <c r="F14" s="2">
+        <f>GEOMEAN(resource_comparison!K44:N44)</f>
+        <v>0.24365336275052318</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34224812796844878</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" ref="J14:J20" si="4">J5</f>
+        <v>m=3,n=4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <f>sort!L19</f>
+        <v>233426</v>
+      </c>
+      <c r="D15" s="1">
+        <f>sort!M19</f>
+        <v>163808</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4249975581168197</v>
+      </c>
+      <c r="F15" s="2">
+        <f>GEOMEAN(resource_comparison!K45:N45)</f>
+        <v>1.3537785098037067</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9291310707013092</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>n=4096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <f>sort!D19</f>
+        <v>300284</v>
+      </c>
+      <c r="D16" s="1">
+        <f>sort!E19</f>
+        <v>285501</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0517791531378173</v>
+      </c>
+      <c r="F16" s="2">
+        <f>GEOMEAN(resource_comparison!K46:N46)</f>
+        <v>1.2240687243739987</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2874499663045726</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>n=4096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <f>sort!H19</f>
+        <v>1447811</v>
+      </c>
+      <c r="D17" s="1">
+        <f>sort!I19</f>
+        <v>1349554</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>1.072807016243885</v>
+      </c>
+      <c r="F17" s="2">
+        <f>GEOMEAN(resource_comparison!K47:N47)</f>
+        <v>0.61177505732249371</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65631657385857611</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>n=4096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1">
+        <f>others!D10</f>
+        <v>209758</v>
+      </c>
+      <c r="D18" s="1">
+        <f>others!E10</f>
+        <v>158321</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3248905704233804</v>
+      </c>
+      <c r="F18" s="2">
+        <f>GEOMEAN(resource_comparison!K48:N48)</f>
+        <v>1.4911552291109</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.975617502086547</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <f>strassen!H14</f>
+        <v>9154658</v>
+      </c>
+      <c r="D19" s="1">
+        <f>strassen!I14</f>
+        <v>9145875</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0009603236431726</v>
+      </c>
+      <c r="F19" s="2">
+        <f>GEOMEAN(resource_comparison!K49:N49)</f>
+        <v>7.1321796968545437</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1390288976447884</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>n=128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10"/>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1">
+        <f>miser!F22</f>
+        <v>15360188</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2">
+        <f>GEOMEAN(resource_comparison!K50:N50)</f>
+        <v>1.4259176542599457</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>n=32768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4">
+        <f>GEOMEAN(C13:C20)</f>
+        <v>495319.44515876746</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:E21" si="5">GEOMEAN(D13:D20)</f>
+        <v>621475.5755649379</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2602519529465854</v>
+      </c>
+      <c r="F21" s="2">
+        <f>GEOMEAN(F13:F20)</f>
+        <v>1.2814276883247622</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6149217467711099</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3585,12 +4211,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4117,12 +4743,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4370,12 +4996,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:Z51"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5532,24 +6158,24 @@
     </row>
     <row r="32" spans="1:26">
       <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14">
       <c r="B33" s="1" t="s">
@@ -5593,7 +6219,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -5637,7 +6263,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
@@ -5679,7 +6305,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
@@ -5721,7 +6347,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
@@ -5763,7 +6389,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
@@ -5805,7 +6431,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
@@ -5847,7 +6473,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
@@ -5889,7 +6515,7 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
@@ -5931,7 +6557,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="6"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
@@ -5973,7 +6599,7 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -6017,7 +6643,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
@@ -6059,7 +6685,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
@@ -6101,7 +6727,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
@@ -6143,7 +6769,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="5"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
@@ -6185,7 +6811,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="5"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
@@ -6227,7 +6853,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="5"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
@@ -6269,7 +6895,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="5"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
@@ -6311,7 +6937,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="5"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
@@ -6365,12 +6991,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
